--- a/xls/itemsGift.xlsx
+++ b/xls/itemsGift.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="60" windowWidth="27765" windowHeight="13590"/>
+    <workbookView xWindow="3720" yWindow="90" windowWidth="27765" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="@道具索引表" sheetId="1" r:id="rId1"/>
@@ -66,39 +66,12 @@
     <t>球员碎片:1006</t>
   </si>
   <si>
-    <t>高级宝石包</t>
-  </si>
-  <si>
-    <t>中级宝石包</t>
-  </si>
-  <si>
-    <t>低级宝石包</t>
-  </si>
-  <si>
     <t>好感道具包</t>
   </si>
   <si>
-    <t>装备进阶材料包</t>
-  </si>
-  <si>
     <t>球星进阶包</t>
   </si>
   <si>
-    <t>4级宝石包</t>
-  </si>
-  <si>
-    <t>5级宝石包</t>
-  </si>
-  <si>
-    <t>6级宝石包</t>
-  </si>
-  <si>
-    <t>7级宝石包</t>
-  </si>
-  <si>
-    <t>8级宝石包</t>
-  </si>
-  <si>
     <t>道具索引表:itemsGiftConfig</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -152,6 +125,42 @@
   </si>
   <si>
     <t>id-数量:概率（千分率）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级晶体包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级晶体包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级晶体包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级晶体包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级晶体包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6级晶体包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7级晶体包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级晶体包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进化材料包</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -515,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -533,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -550,13 +559,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="99" x14ac:dyDescent="0.3">
@@ -564,10 +573,10 @@
         <v>104001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1">
@@ -579,10 +588,10 @@
         <v>104002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1">
@@ -594,10 +603,10 @@
         <v>104003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1">
@@ -609,7 +618,7 @@
         <v>104004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -623,7 +632,7 @@
         <v>104005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -637,7 +646,7 @@
         <v>104006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -651,13 +660,13 @@
         <v>104007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -668,13 +677,13 @@
         <v>104008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -685,13 +694,13 @@
         <v>104009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -702,13 +711,13 @@
         <v>104010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -719,13 +728,13 @@
         <v>104011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -756,7 +765,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">

--- a/xls/itemsGift.xlsx
+++ b/xls/itemsGift.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="90" windowWidth="27765" windowHeight="13560"/>
+    <workbookView xWindow="3720" yWindow="180" windowWidth="27765" windowHeight="13470"/>
   </bookViews>
   <sheets>
     <sheet name="@道具索引表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>id[!.][funcInt]</t>
   </si>
@@ -69,9 +69,6 @@
     <t>好感道具包</t>
   </si>
   <si>
-    <t>球星进阶包</t>
-  </si>
-  <si>
     <t>道具索引表:itemsGiftConfig</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,6 +158,34 @@
   </si>
   <si>
     <t>装备进化材料包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级球星进阶包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级球星进阶包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级球星进阶包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102019-1:400;102018-1:500;102017-1:100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102019-1:200;102018-1:400;102017-1:400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105001-1:84;105002-1:84;105003-1:84;105004-1:84;105006-1:83;105007-1:83;105008-1:83;105009-1:83;105011-1:83;105012-1:83;105013-1:83;105014-1:83</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾问争夺图纸包</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -522,16 +547,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="26.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -542,13 +568,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -559,13 +585,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="99" x14ac:dyDescent="0.3">
@@ -573,10 +599,10 @@
         <v>104001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1">
@@ -588,10 +614,10 @@
         <v>104002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1">
@@ -603,10 +629,10 @@
         <v>104003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1">
@@ -632,7 +658,7 @@
         <v>104005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -646,7 +672,7 @@
         <v>104006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -660,13 +686,13 @@
         <v>104007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -677,13 +703,13 @@
         <v>104008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -694,13 +720,13 @@
         <v>104009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -711,13 +737,13 @@
         <v>104010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -728,16 +754,58 @@
         <v>104011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>104012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>104013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>104014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -749,6 +817,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -765,7 +834,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -831,6 +900,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
